--- a/DoktoraTezi/Algoritma/SHM.xlsx
+++ b/DoktoraTezi/Algoritma/SHM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\Doktora Tezi 2023[3]\Modeller\Model02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1AC32F-D8B9-424E-905C-6786EC66DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F2A3DC-55BE-4966-8039-156F276D82C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="25">
   <si>
     <t>TPAO</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>eexp</t>
   </si>
 </sst>
 </file>
@@ -166,12 +169,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -202,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -506,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -525,14 +537,16 @@
     <col min="13" max="13" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="7"/>
+    <col min="18" max="19" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -591,13 +605,16 @@
         <v>21</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,15 +672,18 @@
       <c r="S2" s="5">
         <v>14.870055893344119</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="5">
         <v>14.578656598722317</v>
       </c>
-      <c r="U2" s="6">
-        <f>SUM(B2:T2)</f>
+      <c r="V2" s="6">
+        <f>SUM(B2:U2)</f>
         <v>196.88114580791495</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -721,15 +741,18 @@
       <c r="S3" s="5">
         <v>287.53221302655686</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="5">
         <v>85.211548968830257</v>
       </c>
-      <c r="U3" s="6">
-        <f t="shared" ref="U3:U20" si="0">SUM(B3:T3)</f>
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V21" si="0">SUM(B3:U3)</f>
         <v>1773.4917381317505</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -787,15 +810,18 @@
       <c r="S4" s="5">
         <v>141.8800749495052</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="5">
         <v>258.82485843589143</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <f t="shared" si="0"/>
         <v>1151.8138244269214</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -853,15 +879,18 @@
       <c r="S5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="5">
         <v>12.518718383131997</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <f t="shared" si="0"/>
         <v>116.4828127949804</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -919,15 +948,18 @@
       <c r="S6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="5">
         <v>0.11120513579585542</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <f t="shared" si="0"/>
         <v>38.816802186040029</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -988,12 +1020,15 @@
       <c r="T7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="6">
         <f t="shared" si="0"/>
         <v>438.57776851000006</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1054,12 +1089,15 @@
       <c r="T8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="6">
         <f t="shared" si="0"/>
         <v>941.94834050999998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1118,12 +1156,15 @@
       <c r="T9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="6">
         <f t="shared" si="0"/>
         <v>27.381401982663807</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1182,12 +1223,15 @@
       <c r="T10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="6">
         <f t="shared" si="0"/>
         <v>3.2905110440252963</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1248,12 +1292,15 @@
       <c r="T11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="6">
         <f t="shared" si="0"/>
         <v>8.3833064271610311</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1314,12 +1361,15 @@
       <c r="T12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="6">
         <f t="shared" si="0"/>
         <v>0.11502724357279971</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1378,12 +1428,15 @@
       <c r="T13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="6">
         <f t="shared" si="0"/>
         <v>96.875539114099993</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1444,12 +1497,15 @@
       <c r="T14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="6">
         <f t="shared" si="0"/>
         <v>184.25934641189571</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1510,12 +1566,15 @@
       <c r="T15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="6">
         <f t="shared" si="0"/>
         <v>4.8866594557681475</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1576,12 +1635,15 @@
       <c r="T16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="6">
         <f t="shared" si="0"/>
         <v>1380.5261090199999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1631,15 +1693,18 @@
       <c r="S17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="6">
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" s="6">
         <f t="shared" si="0"/>
         <v>3.405538287598096</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1700,12 +1765,15 @@
       <c r="T18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="6">
         <f t="shared" si="0"/>
         <v>286.02154498176384</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1763,168 +1831,247 @@
       <c r="S19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="5">
         <v>77.079975749556723</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <f t="shared" si="0"/>
         <v>444.28234386940596</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>11.642609864960409</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>89.657243344401124</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>282.00032920270479</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>29.260072450037402</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="5">
         <v>27.381401982663807</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="J21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5">
         <v>8.3833064271610311</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" s="6">
+      <c r="L21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="6">
         <f t="shared" si="0"/>
         <v>448.32496327192854</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
-        <f>SUM(B2:B20)</f>
+      <c r="B22" s="6">
+        <f>SUM(B2:B21)</f>
         <v>196.88114580791495</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" ref="C21:T21" si="1">SUM(C2:C20)</f>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:U22" si="1">SUM(C2:C21)</f>
         <v>1773.4917381317507</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <f t="shared" si="1"/>
         <v>1151.8138244269214</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>116.48281279498055</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>38.816802186039723</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>438.57776851</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>941.94834050999998</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
         <v>27.381401982663807</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="6">
         <f t="shared" si="1"/>
         <v>3.2905110440252963</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="6">
         <f t="shared" si="1"/>
         <v>8.3833064271610311</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="6">
         <f t="shared" si="1"/>
         <v>0.11502724357279971</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M22" s="6">
         <f t="shared" si="1"/>
         <v>96.875539114099993</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N22" s="6">
         <f t="shared" si="1"/>
         <v>184.25934641189571</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O22" s="6">
         <f t="shared" si="1"/>
         <v>4.8866594557681484</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P22" s="6">
         <f t="shared" si="1"/>
         <v>1380.5261090199999</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q22" s="6">
         <f t="shared" si="1"/>
         <v>3.4055382875980955</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R22" s="6">
         <f t="shared" si="1"/>
         <v>286.02154498176378</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S22" s="6">
         <f t="shared" si="1"/>
         <v>444.28234386940619</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
         <f t="shared" si="1"/>
         <v>448.3249632719286</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="V22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="U2:U20" formulaRange="1"/>
+    <ignoredError sqref="V21 V2:V19" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>